--- a/data/Spreadsheet_Data/BookChapter.xlsx
+++ b/data/Spreadsheet_Data/BookChapter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DE8D24-6963-5C4F-B1E1-BB90AB11734E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEBB28C-B116-FA4C-949B-3CDB94E08A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10820" yWindow="500" windowWidth="61420" windowHeight="30140" xr2:uid="{64081837-AED4-5C4F-90D9-3983F07F1270}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -130,12 +130,6 @@
     <t>Chapter 9</t>
   </si>
   <si>
-    <t>Image Directory</t>
-  </si>
-  <si>
-    <t>File Name</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
@@ -149,36 +143,6 @@
   </si>
   <si>
     <t>W_001, W_004</t>
-  </si>
-  <si>
-    <t>Alice in Wonderland Chapter 1.png</t>
-  </si>
-  <si>
-    <t>data/Multimedia_Data/Fairytale_Chapter/</t>
-  </si>
-  <si>
-    <t>Alice in Wonderland Chapter 2.png</t>
-  </si>
-  <si>
-    <t>Alice in Wonderland Chapter 3.png</t>
-  </si>
-  <si>
-    <t>Alice in Wonderland Chapter 4.png</t>
-  </si>
-  <si>
-    <t>Alice in Wonderland Chapter 5.png</t>
-  </si>
-  <si>
-    <t>Alice in Wonderland Chapter 6.png</t>
-  </si>
-  <si>
-    <t>Alice in Wonderland Chapter 7.png</t>
-  </si>
-  <si>
-    <t>Alice in Wonderland Chapter 8.png</t>
-  </si>
-  <si>
-    <t>Alice in Wonderland Chapter 9.png</t>
   </si>
   <si>
     <t>FT_001</t>
@@ -572,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09649F71-DF44-614C-901E-D19B2BEB1C69}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -584,12 +548,10 @@
     <col min="4" max="4" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57" customWidth="1"/>
     <col min="6" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.28515625" customWidth="1"/>
-    <col min="9" max="9" width="28.85546875" customWidth="1"/>
-    <col min="10" max="10" width="90.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="90.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -597,7 +559,7 @@
         <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -606,22 +568,16 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="100" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -629,7 +585,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -638,19 +594,13 @@
         <v>11</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="140" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="140" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -658,7 +608,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D3" s="3">
         <v>2</v>
@@ -667,16 +617,10 @@
         <v>10</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="100" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -684,7 +628,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D4" s="3">
         <v>3</v>
@@ -693,16 +637,10 @@
         <v>9</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="100" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -710,7 +648,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D5" s="3">
         <v>4</v>
@@ -719,16 +657,10 @@
         <v>8</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="100" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -736,7 +668,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D6" s="3">
         <v>5</v>
@@ -745,16 +677,10 @@
         <v>7</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="100" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -762,7 +688,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D7" s="3">
         <v>6</v>
@@ -771,16 +697,10 @@
         <v>6</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -788,7 +708,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D8" s="3">
         <v>7</v>
@@ -797,16 +717,10 @@
         <v>5</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -814,7 +728,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D9" s="3">
         <v>8</v>
@@ -823,16 +737,10 @@
         <v>4</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -840,7 +748,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D10" s="3">
         <v>9</v>
@@ -849,13 +757,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/data/Spreadsheet_Data/BookChapter.xlsx
+++ b/data/Spreadsheet_Data/BookChapter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEBB28C-B116-FA4C-949B-3CDB94E08A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1444BD65-F899-5F47-BF7F-CF9EAD5C274C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10820" yWindow="500" windowWidth="61420" windowHeight="30140" xr2:uid="{64081837-AED4-5C4F-90D9-3983F07F1270}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="19820" windowHeight="30140" xr2:uid="{64081837-AED4-5C4F-90D9-3983F07F1270}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="91">
   <si>
     <t>ID</t>
   </si>
@@ -73,81 +73,15 @@
     <t>Alice was not your ordinary girl; she had a keen sense of adventure and a bright, inquisitive mind. One sunny afternoon, while wandering near the edge of her town, she stumbled upon a peculiar rabbit hole, shimmering with an array of colors that hinted at something magical beyond the ordinary.</t>
   </si>
   <si>
-    <t>FC_01</t>
-  </si>
-  <si>
-    <t>FC_02</t>
-  </si>
-  <si>
-    <t>FC_03</t>
-  </si>
-  <si>
-    <t>FC_04</t>
-  </si>
-  <si>
-    <t>FC_05</t>
-  </si>
-  <si>
-    <t>FC_06</t>
-  </si>
-  <si>
-    <t>FC_07</t>
-  </si>
-  <si>
-    <t>FC_08</t>
-  </si>
-  <si>
-    <t>FC_09</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Chapter 1</t>
-  </si>
-  <si>
-    <t>Chapter 2</t>
-  </si>
-  <si>
-    <t>Chapter 3</t>
-  </si>
-  <si>
-    <t>Chapter 4</t>
-  </si>
-  <si>
-    <t>Chapter 5</t>
-  </si>
-  <si>
-    <t>Chapter 6</t>
-  </si>
-  <si>
-    <t>Chapter 7</t>
-  </si>
-  <si>
-    <t>Chapter 8</t>
-  </si>
-  <si>
-    <t>Chapter 9</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
     <t>https://www.alice-in-wonderland.net/resources/chapters-script/alices-adventures-in-wonderland/chapter-1/</t>
   </si>
   <si>
-    <t>W_001</t>
-  </si>
-  <si>
-    <t>W_001, W_002</t>
-  </si>
-  <si>
-    <t>W_001, W_004</t>
-  </si>
-  <si>
-    <t>FT_001</t>
-  </si>
-  <si>
     <t>Location ID</t>
   </si>
   <si>
@@ -155,6 +89,225 @@
   </si>
   <si>
     <t>Book ID</t>
+  </si>
+  <si>
+    <t>CH_001</t>
+  </si>
+  <si>
+    <t>BC_01</t>
+  </si>
+  <si>
+    <t>BC_02</t>
+  </si>
+  <si>
+    <t>BC_03</t>
+  </si>
+  <si>
+    <t>BC_04</t>
+  </si>
+  <si>
+    <t>BC_05</t>
+  </si>
+  <si>
+    <t>BC_06</t>
+  </si>
+  <si>
+    <t>BC_07</t>
+  </si>
+  <si>
+    <t>BC_08</t>
+  </si>
+  <si>
+    <t>BC_09</t>
+  </si>
+  <si>
+    <t>BK_001</t>
+  </si>
+  <si>
+    <t>Down the Rabbit-Hole</t>
+  </si>
+  <si>
+    <t>The Pool of Tears</t>
+  </si>
+  <si>
+    <t>A Caucus-Race and a long Tale</t>
+  </si>
+  <si>
+    <t>The Rabbit sends in a little Bill</t>
+  </si>
+  <si>
+    <t>Advice from a Caterpillar</t>
+  </si>
+  <si>
+    <t>Pig and Pepper</t>
+  </si>
+  <si>
+    <t>A Mad Tea-Party</t>
+  </si>
+  <si>
+    <t>The Queen’s Croquet-Ground</t>
+  </si>
+  <si>
+    <t>The Mock Turtle’s Story</t>
+  </si>
+  <si>
+    <t>The Lobster Quadrille</t>
+  </si>
+  <si>
+    <t>Who stole the Tarts?</t>
+  </si>
+  <si>
+    <t>Alice’s Evidence</t>
+  </si>
+  <si>
+    <t>BC_10</t>
+  </si>
+  <si>
+    <t>BC_11</t>
+  </si>
+  <si>
+    <t>BC_12</t>
+  </si>
+  <si>
+    <t>BK_002</t>
+  </si>
+  <si>
+    <t>BC_13</t>
+  </si>
+  <si>
+    <t>BC_14</t>
+  </si>
+  <si>
+    <t>BC_15</t>
+  </si>
+  <si>
+    <t>BC_16</t>
+  </si>
+  <si>
+    <t>BC_17</t>
+  </si>
+  <si>
+    <t>BC_18</t>
+  </si>
+  <si>
+    <t>BC_19</t>
+  </si>
+  <si>
+    <t>BC_20</t>
+  </si>
+  <si>
+    <t>BC_21</t>
+  </si>
+  <si>
+    <t>BC_22</t>
+  </si>
+  <si>
+    <t>BC_23</t>
+  </si>
+  <si>
+    <t>BC_24</t>
+  </si>
+  <si>
+    <t>Looking-Glass House</t>
+  </si>
+  <si>
+    <t>Poem: “A boat beneath a sunny sky”</t>
+  </si>
+  <si>
+    <t>The Garden of Live Flowers</t>
+  </si>
+  <si>
+    <t>Looking-Glass Insects</t>
+  </si>
+  <si>
+    <t>Tweedledum and Tweedledee</t>
+  </si>
+  <si>
+    <t>Wool and Water</t>
+  </si>
+  <si>
+    <t>Humpty Dumpty</t>
+  </si>
+  <si>
+    <t>The Lion and the Unicorn</t>
+  </si>
+  <si>
+    <t>“It’s my own Invention”</t>
+  </si>
+  <si>
+    <t>Queen Alice</t>
+  </si>
+  <si>
+    <t>Shaking</t>
+  </si>
+  <si>
+    <t>Waking</t>
+  </si>
+  <si>
+    <t>Which dreamed it?</t>
+  </si>
+  <si>
+    <t>Dramatis Personae and chessboard</t>
+  </si>
+  <si>
+    <t>Preface</t>
+  </si>
+  <si>
+    <t>Poem: “Child of the pure unclouded brow”</t>
+  </si>
+  <si>
+    <t>Poem: “All in the golden afternoon”</t>
+  </si>
+  <si>
+    <t>BC_25</t>
+  </si>
+  <si>
+    <t>BC_26</t>
+  </si>
+  <si>
+    <t>BC_27</t>
+  </si>
+  <si>
+    <t>BC_28</t>
+  </si>
+  <si>
+    <t>BC_29</t>
+  </si>
+  <si>
+    <t>CH_001, CH_026</t>
+  </si>
+  <si>
+    <t>CH_001, CH_002, CH_006, CH_016</t>
+  </si>
+  <si>
+    <t>CH_001, CH_002, CH_016, CH_020</t>
+  </si>
+  <si>
+    <t>CH_001, CH_002, CH_020, CH_014, CH_021, CH_015, CH_022, CH_023</t>
+  </si>
+  <si>
+    <t>CH_001, CH_020, CH_014, CH_021, CH_015, CH_022, CH_023</t>
+  </si>
+  <si>
+    <t>CH_001, CH_002, CH_003, CH_020, CH_024, CH_025, CH_027</t>
+  </si>
+  <si>
+    <t>CH_001, CH_004, CH_003, CH_029</t>
+  </si>
+  <si>
+    <t>CH_001, CH_002, CH_005, CH_006, CH_008</t>
+  </si>
+  <si>
+    <t>CH_001, CH_006, CH_008</t>
+  </si>
+  <si>
+    <t>CH_001, CH_005, CH_030, CH_031, CH_008, CH_032, CH_033</t>
+  </si>
+  <si>
+    <t>CH_001, CH_004, CH_007, CH_018</t>
+  </si>
+  <si>
+    <t>CH_001, CH_002, CH_004, CH_006, CH_027, CH_033, CH_007, CH_018</t>
   </si>
 </sst>
 </file>
@@ -210,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -222,6 +375,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,18 +690,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09649F71-DF44-614C-901E-D19B2BEB1C69}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57" customWidth="1"/>
-    <col min="6" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="90.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -556,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -568,196 +724,479 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="100" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="100" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="140" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="G3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="140" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="100" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="3">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="G4" s="4" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D7" s="3">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="100" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="3">
         <v>6</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="3">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G8" s="4" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="3">
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="3">
         <v>8</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="G10" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="3">
         <v>9</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>33</v>
+      <c r="G11" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="3">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="3">
+        <v>11</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="3">
+        <v>12</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="3">
+        <v>4</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/data/Spreadsheet_Data/BookChapter.xlsx
+++ b/data/Spreadsheet_Data/BookChapter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1444BD65-F899-5F47-BF7F-CF9EAD5C274C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD81E6F1-A96F-1943-984D-8725CA26ACFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="19820" windowHeight="30140" xr2:uid="{64081837-AED4-5C4F-90D9-3983F07F1270}"/>
+    <workbookView xWindow="40700" yWindow="500" windowWidth="30080" windowHeight="30140" xr2:uid="{64081837-AED4-5C4F-90D9-3983F07F1270}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>ID</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>CH_001, CH_002, CH_004, CH_006, CH_027, CH_033, CH_007, CH_018</t>
+  </si>
+  <si>
+    <t>Poem</t>
   </si>
 </sst>
 </file>
@@ -363,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -375,7 +378,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -692,15 +694,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09649F71-DF44-614C-901E-D19B2BEB1C69}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="3.42578125" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" customWidth="1"/>
     <col min="6" max="6" width="7.140625" customWidth="1"/>
     <col min="7" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
@@ -740,8 +742,14 @@
       <c r="B2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="100" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -764,7 +772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="140" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -784,7 +792,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="100" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -804,7 +812,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="100" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -824,7 +832,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="100" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -844,7 +852,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="100" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -864,7 +872,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -904,7 +912,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -928,7 +936,7 @@
       <c r="A12" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>38</v>
       </c>
       <c r="C12" t="s">
@@ -1012,7 +1020,7 @@
       <c r="A18" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" t="s">
         <v>57</v>
       </c>
       <c r="C18" t="s">

--- a/data/Spreadsheet_Data/BookChapter.xlsx
+++ b/data/Spreadsheet_Data/BookChapter.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418BC7EB-0A00-A94C-8072-D148776484F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B932473A-0E55-434D-8CEB-CD812EFE771C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11940" yWindow="8420" windowWidth="46220" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="1560" windowWidth="70940" windowHeight="30120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -3697,13 +3697,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="67.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="190.83203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" customWidth="1"/>
     <col min="7" max="7" width="31.83203125" customWidth="1"/>
     <col min="8" max="8" width="73.1640625" customWidth="1"/>
